--- a/exceli_iz_clankov/Dakskobler_in_Surina_2017a_2_merged.xlsx
+++ b/exceli_iz_clankov/Dakskobler_in_Surina_2017a_2_merged.xlsx
@@ -1,21 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakob\Downloads\JERNEJ-dipl\exceli_iz_clankov\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C57201-AB14-43E3-9B26-C587881DF28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="HkeaIC2Q/uMBHIuc28YIyS1Z+sAfSAinEqkAt/0edO8="/>
@@ -25,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8461" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8459" uniqueCount="542">
   <si>
     <t>Column1</t>
   </si>
@@ -1651,34 +1642,26 @@
   </si>
   <si>
     <t>Rhytidiadelphus triquetrus</t>
-  </si>
-  <si>
-    <t>fake pr</t>
-  </si>
-  <si>
-    <t>fake fr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -1689,17 +1672,11 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1713,38 +1690,36 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1934,27 +1909,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW1017"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BB50" sqref="BB50"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="43.08984375" customWidth="1"/>
-    <col min="3" max="47" width="8.7265625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="8.71"/>
+    <col customWidth="1" min="2" max="2" width="43.14"/>
+    <col customWidth="1" min="3" max="47" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2097,7 +2070,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:49" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="B2" s="2" t="s">
         <v>47</v>
       </c>
@@ -2233,14 +2206,8 @@
       <c r="AU2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AV2" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>543</v>
-      </c>
     </row>
-    <row r="3" spans="1:49" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="B3" s="2" t="s">
         <v>92</v>
       </c>
@@ -2377,7 +2344,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:49" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="B4" s="2" t="s">
         <v>137</v>
       </c>
@@ -2514,7 +2481,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:49" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="B5" s="2" t="s">
         <v>139</v>
       </c>
@@ -2651,7 +2618,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:49" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="B6" s="2" t="s">
         <v>170</v>
       </c>
@@ -2788,7 +2755,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:49" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="B7" s="2" t="s">
         <v>182</v>
       </c>
@@ -2925,7 +2892,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:49" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8">
       <c r="B8" s="2" t="s">
         <v>184</v>
       </c>
@@ -3062,7 +3029,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:49" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="B9" s="2" t="s">
         <v>188</v>
       </c>
@@ -3199,7 +3166,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10">
       <c r="B10" s="2" t="s">
         <v>191</v>
       </c>
@@ -3336,7 +3303,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11">
       <c r="B11" s="2" t="s">
         <v>194</v>
       </c>
@@ -3476,7 +3443,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:49" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12">
       <c r="B12" s="2" t="s">
         <v>201</v>
       </c>
@@ -3616,7 +3583,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13">
       <c r="B13" s="2" t="s">
         <v>204</v>
       </c>
@@ -3753,7 +3720,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:49" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14">
       <c r="B14" s="2" t="s">
         <v>205</v>
       </c>
@@ -3893,7 +3860,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:49" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15">
       <c r="B15" s="2" t="s">
         <v>208</v>
       </c>
@@ -4030,7 +3997,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:49" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16">
       <c r="B16" s="2" t="s">
         <v>237</v>
       </c>
@@ -4167,7 +4134,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="1:49" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17">
       <c r="B17" s="2" t="s">
         <v>266</v>
       </c>
@@ -4304,7 +4271,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="1:49" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18">
       <c r="B18" s="2" t="s">
         <v>280</v>
       </c>
@@ -4444,7 +4411,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="19" spans="1:49" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19">
       <c r="B19" s="2" t="s">
         <v>325</v>
       </c>
@@ -4584,12 +4551,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="20" spans="1:49" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20">
       <c r="E20" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="21" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>371</v>
       </c>
@@ -4731,14 +4698,8 @@
       <c r="AU21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AV21">
-        <v>5</v>
-      </c>
-      <c r="AW21">
-        <v>5</v>
-      </c>
     </row>
-    <row r="22" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>373</v>
       </c>
@@ -4748,7 +4709,7 @@
       <c r="C22" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>203</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -4880,14 +4841,8 @@
       <c r="AU22" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="AV22">
-        <v>99</v>
-      </c>
-      <c r="AW22">
-        <v>99</v>
-      </c>
     </row>
-    <row r="23" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>371</v>
       </c>
@@ -4897,7 +4852,7 @@
       <c r="C23" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>203</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -5029,14 +4984,8 @@
       <c r="AU23" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="AV23">
-        <v>10</v>
-      </c>
-      <c r="AW23">
-        <v>10</v>
-      </c>
     </row>
-    <row r="24" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>378</v>
       </c>
@@ -5046,7 +4995,7 @@
       <c r="C24" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>203</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -5178,14 +5127,8 @@
       <c r="AU24" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="AV24">
-        <v>6</v>
-      </c>
-      <c r="AW24">
-        <v>6</v>
-      </c>
     </row>
-    <row r="25" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>378</v>
       </c>
@@ -5195,7 +5138,7 @@
       <c r="C25" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>203</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -5327,14 +5270,8 @@
       <c r="AU25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AV25">
-        <v>7</v>
-      </c>
-      <c r="AW25">
-        <v>8</v>
-      </c>
     </row>
-    <row r="26" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>381</v>
       </c>
@@ -5344,7 +5281,7 @@
       <c r="C26" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>203</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -5476,14 +5413,8 @@
       <c r="AU26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AV26">
-        <v>8</v>
-      </c>
-      <c r="AW26">
-        <v>8</v>
-      </c>
     </row>
-    <row r="27" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>383</v>
       </c>
@@ -5493,7 +5424,7 @@
       <c r="C27" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>203</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -5626,7 +5557,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="28" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>385</v>
       </c>
@@ -5636,7 +5567,7 @@
       <c r="C28" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>203</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -5769,7 +5700,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>387</v>
       </c>
@@ -5779,7 +5710,7 @@
       <c r="C29" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>203</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -5912,7 +5843,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="30" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="B30" s="2" t="s">
         <v>389</v>
       </c>
@@ -6052,7 +5983,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="B31" s="2" t="s">
         <v>390</v>
       </c>
@@ -6192,7 +6123,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="32" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="B32" s="2" t="s">
         <v>47</v>
       </c>
@@ -6329,7 +6260,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>391</v>
       </c>
@@ -6469,7 +6400,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="B34" s="2" t="s">
         <v>392</v>
       </c>
@@ -6609,7 +6540,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="B35" s="2" t="s">
         <v>393</v>
       </c>
@@ -6749,7 +6680,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="36" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="B36" s="2" t="s">
         <v>394</v>
       </c>
@@ -6889,7 +6820,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="37" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="B37" s="2" t="s">
         <v>395</v>
       </c>
@@ -7029,7 +6960,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="38" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="B38" s="2" t="s">
         <v>396</v>
       </c>
@@ -7169,7 +7100,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="39" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="B39" s="2" t="s">
         <v>397</v>
       </c>
@@ -7309,7 +7240,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="40" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="B40" s="2" t="s">
         <v>398</v>
       </c>
@@ -7449,7 +7380,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="41" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="B41" s="2" t="s">
         <v>399</v>
       </c>
@@ -7589,7 +7520,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="42" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="B42" s="2" t="s">
         <v>400</v>
       </c>
@@ -7729,7 +7660,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="B43" s="2" t="s">
         <v>401</v>
       </c>
@@ -7869,7 +7800,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="44" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="B44" s="2" t="s">
         <v>402</v>
       </c>
@@ -8009,7 +7940,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="45" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="B45" s="2" t="s">
         <v>403</v>
       </c>
@@ -8149,7 +8080,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="B46" s="2" t="s">
         <v>404</v>
       </c>
@@ -8289,7 +8220,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="47" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="B47" s="2" t="s">
         <v>405</v>
       </c>
@@ -8429,7 +8360,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="B48" s="2" t="s">
         <v>406</v>
       </c>
@@ -8569,8 +8500,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="49" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1">
       <c r="B50" s="2" t="s">
         <v>407</v>
       </c>
@@ -8710,7 +8641,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="B51" s="2" t="s">
         <v>408</v>
       </c>
@@ -8850,7 +8781,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="52" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="B52" s="2" t="s">
         <v>409</v>
       </c>
@@ -8990,7 +8921,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="B53" s="2" t="s">
         <v>410</v>
       </c>
@@ -9130,7 +9061,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="B54" s="2" t="s">
         <v>411</v>
       </c>
@@ -9270,7 +9201,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="55" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="B55" s="2" t="s">
         <v>412</v>
       </c>
@@ -9410,7 +9341,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="56" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="B56" s="2" t="s">
         <v>413</v>
       </c>
@@ -9550,7 +9481,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="57" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="B57" s="2" t="s">
         <v>414</v>
       </c>
@@ -9690,8 +9621,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="58" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1">
       <c r="B59" s="2" t="s">
         <v>415</v>
       </c>
@@ -9831,7 +9762,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="60" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="B60" s="2" t="s">
         <v>416</v>
       </c>
@@ -9971,8 +9902,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="61" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1">
       <c r="B62" s="2" t="s">
         <v>417</v>
       </c>
@@ -10112,7 +10043,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="63" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="B63" s="2" t="s">
         <v>418</v>
       </c>
@@ -10252,7 +10183,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="64" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="B64" s="2" t="s">
         <v>419</v>
       </c>
@@ -10392,8 +10323,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="65" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1">
       <c r="B66" s="2" t="s">
         <v>420</v>
       </c>
@@ -10533,7 +10464,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="B67" s="2" t="s">
         <v>421</v>
       </c>
@@ -10673,7 +10604,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="68" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="B68" s="2" t="s">
         <v>422</v>
       </c>
@@ -10813,7 +10744,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="69" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="B69" s="2" t="s">
         <v>423</v>
       </c>
@@ -10953,7 +10884,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="70" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="B70" s="2" t="s">
         <v>424</v>
       </c>
@@ -11093,7 +11024,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="B71" s="2" t="s">
         <v>425</v>
       </c>
@@ -11233,7 +11164,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="72" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="B72" s="2" t="s">
         <v>426</v>
       </c>
@@ -11373,7 +11304,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="73" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="B73" s="2" t="s">
         <v>427</v>
       </c>
@@ -11513,7 +11444,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="74" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="B74" s="2" t="s">
         <v>428</v>
       </c>
@@ -11653,7 +11584,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="75" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="B75" s="2" t="s">
         <v>429</v>
       </c>
@@ -11793,7 +11724,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="76" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="B76" s="2" t="s">
         <v>430</v>
       </c>
@@ -11933,7 +11864,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="77" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="B77" s="2" t="s">
         <v>47</v>
       </c>
@@ -12070,7 +12001,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="B78" s="2" t="s">
         <v>431</v>
       </c>
@@ -12210,7 +12141,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="79" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="B79" s="2" t="s">
         <v>432</v>
       </c>
@@ -12350,8 +12281,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="80" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1">
       <c r="B81" s="2" t="s">
         <v>433</v>
       </c>
@@ -12491,7 +12422,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="B82" s="2" t="s">
         <v>434</v>
       </c>
@@ -12631,7 +12562,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="83" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="B83" s="2" t="s">
         <v>435</v>
       </c>
@@ -12771,7 +12702,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="84" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="B84" s="2" t="s">
         <v>436</v>
       </c>
@@ -12911,7 +12842,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="B85" s="2" t="s">
         <v>437</v>
       </c>
@@ -13051,7 +12982,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="86" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="B86" s="2" t="s">
         <v>438</v>
       </c>
@@ -13191,7 +13122,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="87" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="B87" s="2" t="s">
         <v>439</v>
       </c>
@@ -13331,7 +13262,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="88" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="B88" s="2" t="s">
         <v>440</v>
       </c>
@@ -13471,7 +13402,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="89" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="B89" s="2" t="s">
         <v>441</v>
       </c>
@@ -13611,7 +13542,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="90" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="B90" s="2" t="s">
         <v>442</v>
       </c>
@@ -13751,7 +13682,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="91" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="B91" s="2" t="s">
         <v>443</v>
       </c>
@@ -13891,7 +13822,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="92" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="B92" s="2" t="s">
         <v>444</v>
       </c>
@@ -14031,7 +13962,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="93" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="B93" s="2" t="s">
         <v>445</v>
       </c>
@@ -14171,7 +14102,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="94" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="B94" s="2" t="s">
         <v>446</v>
       </c>
@@ -14311,7 +14242,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="95" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="B95" s="2" t="s">
         <v>447</v>
       </c>
@@ -14451,7 +14382,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="96" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="B96" s="2" t="s">
         <v>448</v>
       </c>
@@ -14591,7 +14522,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="97" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="B97" s="2" t="s">
         <v>449</v>
       </c>
@@ -14731,7 +14662,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="98" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="B98" s="2" t="s">
         <v>450</v>
       </c>
@@ -14871,7 +14802,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="99" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="B99" s="2" t="s">
         <v>451</v>
       </c>
@@ -15011,7 +14942,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="100" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="B100" s="2" t="s">
         <v>452</v>
       </c>
@@ -15151,7 +15082,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="101" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="B101" s="2" t="s">
         <v>453</v>
       </c>
@@ -15291,7 +15222,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="102" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="B102" s="2" t="s">
         <v>454</v>
       </c>
@@ -15431,7 +15362,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="B103" s="2" t="s">
         <v>455</v>
       </c>
@@ -15571,8 +15502,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="104" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1">
       <c r="B105" s="2" t="s">
         <v>456</v>
       </c>
@@ -15712,8 +15643,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="106" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1">
       <c r="B107" s="2" t="s">
         <v>457</v>
       </c>
@@ -15853,7 +15784,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="108" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="B108" s="2" t="s">
         <v>458</v>
       </c>
@@ -15993,7 +15924,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="109" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="B109" s="2" t="s">
         <v>459</v>
       </c>
@@ -16133,8 +16064,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="110" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1">
       <c r="B111" s="2" t="s">
         <v>460</v>
       </c>
@@ -16274,7 +16205,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="112" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="B112" s="2" t="s">
         <v>461</v>
       </c>
@@ -16414,7 +16345,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="113" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="B113" s="2" t="s">
         <v>462</v>
       </c>
@@ -16554,7 +16485,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="114" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="B114" s="2" t="s">
         <v>463</v>
       </c>
@@ -16694,7 +16625,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="115" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="B115" s="2" t="s">
         <v>464</v>
       </c>
@@ -16834,7 +16765,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="116" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="B116" s="2" t="s">
         <v>465</v>
       </c>
@@ -16974,7 +16905,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="117" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="B117" s="2" t="s">
         <v>466</v>
       </c>
@@ -17114,7 +17045,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="118" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="B118" s="2" t="s">
         <v>467</v>
       </c>
@@ -17254,8 +17185,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="119" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1">
       <c r="B120" s="2" t="s">
         <v>468</v>
       </c>
@@ -17395,7 +17326,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="121" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="B121" s="2" t="s">
         <v>469</v>
       </c>
@@ -17535,7 +17466,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="122" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="B122" s="2" t="s">
         <v>470</v>
       </c>
@@ -17675,7 +17606,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="123" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="B123" s="2" t="s">
         <v>47</v>
       </c>
@@ -17812,7 +17743,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="124" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="B124" s="2" t="s">
         <v>471</v>
       </c>
@@ -17952,7 +17883,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="125" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="B125" s="2" t="s">
         <v>472</v>
       </c>
@@ -18092,7 +18023,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="126" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="B126" s="2" t="s">
         <v>473</v>
       </c>
@@ -18232,7 +18163,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="127" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="B127" s="2" t="s">
         <v>474</v>
       </c>
@@ -18372,7 +18303,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="128" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="B128" s="2" t="s">
         <v>475</v>
       </c>
@@ -18512,7 +18443,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="129" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="B129" s="2" t="s">
         <v>476</v>
       </c>
@@ -18652,7 +18583,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="130" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="B130" s="2" t="s">
         <v>477</v>
       </c>
@@ -18792,7 +18723,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="131" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="B131" s="2" t="s">
         <v>478</v>
       </c>
@@ -18932,7 +18863,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="132" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="B132" s="2" t="s">
         <v>479</v>
       </c>
@@ -19072,7 +19003,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="133" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="B133" s="2" t="s">
         <v>480</v>
       </c>
@@ -19212,7 +19143,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="134" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="B134" s="2" t="s">
         <v>481</v>
       </c>
@@ -19352,7 +19283,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="135" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="B135" s="2" t="s">
         <v>482</v>
       </c>
@@ -19492,7 +19423,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="136" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="B136" s="2" t="s">
         <v>483</v>
       </c>
@@ -19632,8 +19563,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="137" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1">
       <c r="B138" s="2" t="s">
         <v>484</v>
       </c>
@@ -19773,7 +19704,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="139" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="B139" s="2" t="s">
         <v>485</v>
       </c>
@@ -19913,7 +19844,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="140" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="B140" s="2" t="s">
         <v>486</v>
       </c>
@@ -20053,7 +19984,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="141" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="2" t="s">
         <v>487</v>
       </c>
@@ -20196,7 +20127,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="142" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="B142" s="2" t="s">
         <v>489</v>
       </c>
@@ -20336,7 +20267,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="143" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="B143" s="2" t="s">
         <v>490</v>
       </c>
@@ -20476,7 +20407,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="144" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="B144" s="2" t="s">
         <v>491</v>
       </c>
@@ -20616,7 +20547,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="145" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="B145" s="2" t="s">
         <v>492</v>
       </c>
@@ -20756,7 +20687,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="146" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="B146" s="2" t="s">
         <v>493</v>
       </c>
@@ -20896,7 +20827,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="147" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="B147" s="2" t="s">
         <v>494</v>
       </c>
@@ -21036,7 +20967,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="148" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="B148" s="2" t="s">
         <v>495</v>
       </c>
@@ -21176,7 +21107,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="149" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="B149" s="2" t="s">
         <v>496</v>
       </c>
@@ -21316,7 +21247,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="150" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="B150" s="2" t="s">
         <v>497</v>
       </c>
@@ -21456,8 +21387,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="151" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="152" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1">
       <c r="B152" s="2" t="s">
         <v>498</v>
       </c>
@@ -21597,7 +21528,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="153" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="B153" s="2" t="s">
         <v>499</v>
       </c>
@@ -21737,7 +21668,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="154" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="B154" s="2" t="s">
         <v>500</v>
       </c>
@@ -21877,7 +21808,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="155" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="B155" s="2" t="s">
         <v>501</v>
       </c>
@@ -22017,7 +21948,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="156" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" ht="15.75" customHeight="1">
       <c r="B156" s="2" t="s">
         <v>502</v>
       </c>
@@ -22157,8 +22088,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="157" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="158" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1">
       <c r="B158" s="2" t="s">
         <v>503</v>
       </c>
@@ -22298,7 +22229,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="159" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" ht="15.75" customHeight="1">
       <c r="B159" s="2" t="s">
         <v>504</v>
       </c>
@@ -22438,7 +22369,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="160" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" ht="15.75" customHeight="1">
       <c r="B160" s="2" t="s">
         <v>505</v>
       </c>
@@ -22578,7 +22509,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="161" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" ht="15.75" customHeight="1">
       <c r="B161" s="2" t="s">
         <v>506</v>
       </c>
@@ -22718,7 +22649,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="162" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" ht="15.75" customHeight="1">
       <c r="B162" s="2" t="s">
         <v>507</v>
       </c>
@@ -22858,7 +22789,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="163" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" ht="15.75" customHeight="1">
       <c r="B163" s="2" t="s">
         <v>508</v>
       </c>
@@ -22998,7 +22929,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="164" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" ht="15.75" customHeight="1">
       <c r="B164" s="2" t="s">
         <v>509</v>
       </c>
@@ -23138,7 +23069,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="165" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" ht="15.75" customHeight="1">
       <c r="B165" s="2" t="s">
         <v>510</v>
       </c>
@@ -23278,7 +23209,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="166" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" ht="15.75" customHeight="1">
       <c r="B166" s="2" t="s">
         <v>511</v>
       </c>
@@ -23418,7 +23349,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="167" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" ht="15.75" customHeight="1">
       <c r="B167" s="2" t="s">
         <v>47</v>
       </c>
@@ -23555,7 +23486,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="168" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" ht="15.75" customHeight="1">
       <c r="B168" s="2" t="s">
         <v>512</v>
       </c>
@@ -23695,7 +23626,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="169" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" ht="15.75" customHeight="1">
       <c r="B169" s="2" t="s">
         <v>513</v>
       </c>
@@ -23835,8 +23766,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="170" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="171" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1">
       <c r="B171" s="2" t="s">
         <v>514</v>
       </c>
@@ -23976,7 +23907,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="172" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" ht="15.75" customHeight="1">
       <c r="B172" s="2" t="s">
         <v>515</v>
       </c>
@@ -24116,7 +24047,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="173" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" ht="15.75" customHeight="1">
       <c r="B173" s="2" t="s">
         <v>516</v>
       </c>
@@ -24256,7 +24187,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="174" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" ht="15.75" customHeight="1">
       <c r="B174" s="2" t="s">
         <v>517</v>
       </c>
@@ -24396,7 +24327,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="175" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" ht="15.75" customHeight="1">
       <c r="B175" s="2" t="s">
         <v>518</v>
       </c>
@@ -24536,8 +24467,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="176" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="177" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1">
       <c r="B177" s="2" t="s">
         <v>519</v>
       </c>
@@ -24677,7 +24608,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="178" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" ht="15.75" customHeight="1">
       <c r="B178" s="2" t="s">
         <v>520</v>
       </c>
@@ -24817,7 +24748,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="179" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" ht="15.75" customHeight="1">
       <c r="B179" s="2" t="s">
         <v>521</v>
       </c>
@@ -24957,8 +24888,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="180" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="181" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1">
       <c r="B181" s="2" t="s">
         <v>522</v>
       </c>
@@ -25098,7 +25029,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="182" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" ht="15.75" customHeight="1">
       <c r="B182" s="2" t="s">
         <v>523</v>
       </c>
@@ -25238,7 +25169,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="183" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" ht="15.75" customHeight="1">
       <c r="B183" s="2" t="s">
         <v>524</v>
       </c>
@@ -25378,8 +25309,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="184" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="185" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1">
       <c r="B185" s="2" t="s">
         <v>525</v>
       </c>
@@ -25519,7 +25450,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="186" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" ht="15.75" customHeight="1">
       <c r="B186" s="2" t="s">
         <v>526</v>
       </c>
@@ -25659,8 +25590,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="187" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="188" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1">
       <c r="B188" s="2" t="s">
         <v>527</v>
       </c>
@@ -25800,7 +25731,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="189" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" ht="15.75" customHeight="1">
       <c r="B189" s="2" t="s">
         <v>528</v>
       </c>
@@ -25940,7 +25871,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="190" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" ht="15.75" customHeight="1">
       <c r="B190" s="2" t="s">
         <v>529</v>
       </c>
@@ -26080,7 +26011,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="191" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" ht="15.75" customHeight="1">
       <c r="B191" s="2" t="s">
         <v>530</v>
       </c>
@@ -26220,8 +26151,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="192" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="193" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1">
       <c r="B193" s="2" t="s">
         <v>531</v>
       </c>
@@ -26361,7 +26292,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="194" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" ht="15.75" customHeight="1">
       <c r="B194" s="2" t="s">
         <v>532</v>
       </c>
@@ -26501,8 +26432,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="195" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="196" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1">
       <c r="B196" s="2" t="s">
         <v>533</v>
       </c>
@@ -26642,7 +26573,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="197" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" ht="15.75" customHeight="1">
       <c r="B197" s="2" t="s">
         <v>534</v>
       </c>
@@ -26782,7 +26713,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="198" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" ht="15.75" customHeight="1">
       <c r="B198" s="2" t="s">
         <v>535</v>
       </c>
@@ -26922,7 +26853,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="199" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" ht="15.75" customHeight="1">
       <c r="B199" s="2" t="s">
         <v>536</v>
       </c>
@@ -27062,7 +26993,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="200" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" ht="15.75" customHeight="1">
       <c r="B200" s="2" t="s">
         <v>537</v>
       </c>
@@ -27202,7 +27133,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="201" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" ht="15.75" customHeight="1">
       <c r="B201" s="2" t="s">
         <v>538</v>
       </c>
@@ -27342,7 +27273,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="202" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" ht="15.75" customHeight="1">
       <c r="B202" s="2" t="s">
         <v>539</v>
       </c>
@@ -27482,7 +27413,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="203" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" ht="15.75" customHeight="1">
       <c r="B203" s="2" t="s">
         <v>540</v>
       </c>
@@ -27622,7 +27553,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="204" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" ht="15.75" customHeight="1">
       <c r="B204" s="2" t="s">
         <v>541</v>
       </c>
@@ -27762,821 +27693,823 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="206" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="207" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="208" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="1006" ht="15.75" customHeight="1"/>
+    <row r="1007" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1"/>
+    <row r="1009" ht="15.75" customHeight="1"/>
+    <row r="1010" ht="15.75" customHeight="1"/>
+    <row r="1011" ht="15.75" customHeight="1"/>
+    <row r="1012" ht="15.75" customHeight="1"/>
+    <row r="1013" ht="15.75" customHeight="1"/>
+    <row r="1014" ht="15.75" customHeight="1"/>
+    <row r="1015" ht="15.75" customHeight="1"/>
+    <row r="1016" ht="15.75" customHeight="1"/>
+    <row r="1017" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>